--- a/doc/resources/ProjectileConfig.xlsx
+++ b/doc/resources/ProjectileConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ProjectileConfig</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>width</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>TRACKING_PROJECTILE</t>
   </si>
 </sst>
 </file>
@@ -71,12 +77,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,23 +105,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,58 +171,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -248,6 +240,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -258,19 +257,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,163 +347,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,148 +553,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1057,15 +1056,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="43.75" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="25.625" customWidth="1"/>
@@ -1122,6 +1122,29 @@
       </c>
       <c r="H2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/doc/resources/ProjectileConfig.xlsx
+++ b/doc/resources/ProjectileConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F14" sqref="F20 F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -1135,7 +1135,7 @@
         <v>17</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="F3">
         <v>0</v>
